--- a/PhoenixCI/Excel_Template/30720.xlsx
+++ b/PhoenixCI/Excel_Template/30720.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C846EDB-F8F2-4519-B94C-1D691FD1BD52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2038F012-37D8-4DDD-ACAC-974675B4C0F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="30720" sheetId="4216" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -586,115 +585,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="187" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -703,79 +703,82 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1144,153 +1147,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="E1" s="25" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="E1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="E2" s="27" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="E2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
       <c r="U2" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="40" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="29" t="s">
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="40" t="s">
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="41"/>
+      <c r="V4" s="42"/>
     </row>
     <row r="5" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="31" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="32"/>
+      <c r="K5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="46" t="s">
+      <c r="L5" s="32"/>
+      <c r="M5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="47"/>
-      <c r="O5" s="31" t="s">
+      <c r="N5" s="49"/>
+      <c r="O5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="29" t="s">
+      <c r="P5" s="32"/>
+      <c r="Q5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="31"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="44"/>
     </row>
     <row r="6" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1347,10 +1350,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5">
@@ -1407,8 +1410,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="5">
@@ -1465,8 +1468,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="5">
@@ -1523,8 +1526,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="5">
@@ -1581,8 +1584,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="5">
@@ -1639,8 +1642,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="5">
@@ -1689,16 +1692,16 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="6">
-        <v>0</v>
-      </c>
-      <c r="V12" s="6">
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="5">
@@ -1755,8 +1758,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="5">
@@ -1813,8 +1816,8 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="5">
@@ -1871,8 +1874,8 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="5">
@@ -1929,8 +1932,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="5">
@@ -1987,8 +1990,8 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="5">
@@ -2045,8 +2048,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="5">
@@ -2103,8 +2106,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="5">
@@ -2161,8 +2164,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="5">
@@ -2211,16 +2214,16 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
-      <c r="U21" s="6">
-        <v>0</v>
-      </c>
-      <c r="V21" s="6">
+      <c r="U21" s="10">
+        <v>0</v>
+      </c>
+      <c r="V21" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="5">
@@ -2277,8 +2280,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="5">
@@ -2335,8 +2338,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="5">
@@ -2393,8 +2396,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="5">
@@ -2451,8 +2454,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="5">
@@ -2509,8 +2512,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="5">
@@ -2567,8 +2570,8 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="5">
@@ -2625,8 +2628,8 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="5">
@@ -2683,8 +2686,8 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="5">
@@ -2741,8 +2744,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="5">
@@ -2799,8 +2802,8 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="5">
@@ -2857,154 +2860,154 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="18">
         <f>SUM(C7:C32)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="18">
         <f t="shared" ref="D33:V33" si="0">SUM(D7:D32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="17">
+      <c r="P33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="Q33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R33" s="17">
+      <c r="R33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S33" s="17">
+      <c r="S33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T33" s="17">
+      <c r="T33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U33" s="17">
+      <c r="U33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V33" s="17">
+      <c r="V33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="18" t="e">
+      <c r="C34" s="19" t="e">
         <f>ROUND(C33/C49*100,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="18" t="e">
+      <c r="D34" s="19" t="e">
         <f>ROUND(D33/D49*100,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="45" t="e">
+      <c r="E34" s="47" t="e">
         <f>(E33+F33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45" t="e">
+      <c r="F34" s="47"/>
+      <c r="G34" s="47" t="e">
         <f>(G33+H33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45" t="e">
+      <c r="H34" s="47"/>
+      <c r="I34" s="47" t="e">
         <f>(I33+J33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45" t="e">
+      <c r="J34" s="47"/>
+      <c r="K34" s="47" t="e">
         <f>(K33+L33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45" t="e">
+      <c r="L34" s="47"/>
+      <c r="M34" s="47" t="e">
         <f>(M33+N33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45" t="e">
+      <c r="N34" s="47"/>
+      <c r="O34" s="47" t="e">
         <f>(O33+P33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="48" t="e">
+      <c r="P34" s="47"/>
+      <c r="Q34" s="50" t="e">
         <f>(Q33+R33+S33+T33)/C33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="45" t="e">
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="47" t="e">
         <f>(U33+V33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V34" s="45"/>
+      <c r="V34" s="47"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
     <row r="35" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="5">
@@ -3069,8 +3072,8 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="5">
@@ -3135,8 +3138,8 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="5">
@@ -3201,8 +3204,8 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="46"/>
+      <c r="B38" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="5">
@@ -3262,13 +3265,13 @@
       <c r="U38" s="5">
         <v>0</v>
       </c>
-      <c r="V38" s="6">
+      <c r="V38" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="46"/>
+      <c r="B39" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="5">
@@ -3333,8 +3336,8 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="46"/>
+      <c r="B40" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="5">
@@ -3399,8 +3402,8 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="5">
@@ -3467,8 +3470,8 @@
       <c r="X41" s="3"/>
     </row>
     <row r="42" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="13" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="5">
@@ -3535,8 +3538,8 @@
       <c r="X42" s="3"/>
     </row>
     <row r="43" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="16" t="s">
+      <c r="A43" s="46"/>
+      <c r="B43" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="5">
@@ -3603,8 +3606,8 @@
       <c r="X43" s="3"/>
     </row>
     <row r="44" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="14" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="5">
@@ -3671,8 +3674,8 @@
       <c r="X44" s="3"/>
     </row>
     <row r="45" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C45" s="5">
@@ -3739,8 +3742,8 @@
       <c r="X45" s="3"/>
     </row>
     <row r="46" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="13" t="s">
+      <c r="A46" s="46"/>
+      <c r="B46" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="5">
@@ -3806,280 +3809,280 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="19" t="s">
+    <row r="47" spans="1:24" s="21" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="18">
         <f>SUM(C35:C46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="18">
         <f t="shared" ref="D47:V47" si="1">SUM(D35:D46)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P47" s="17">
+      <c r="P47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="17">
+      <c r="Q47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R47" s="17">
+      <c r="R47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S47" s="17">
+      <c r="S47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T47" s="17">
+      <c r="T47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U47" s="17">
+      <c r="U47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V47" s="17">
+      <c r="V47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X47" s="21"/>
-    </row>
-    <row r="48" spans="1:24" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="19" t="s">
+      <c r="X47" s="22"/>
+    </row>
+    <row r="48" spans="1:24" s="21" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="18" t="e">
+      <c r="C48" s="19" t="e">
         <f>ROUND(C47/C49*100,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="18" t="e">
+      <c r="D48" s="19" t="e">
         <f>ROUND(D47/D49*100,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E48" s="45" t="e">
+      <c r="E48" s="47" t="e">
         <f>(E47+F47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45" t="e">
+      <c r="F48" s="47"/>
+      <c r="G48" s="47" t="e">
         <f>(G47+H47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45" t="e">
+      <c r="H48" s="47"/>
+      <c r="I48" s="47" t="e">
         <f>(I47+J47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45" t="e">
+      <c r="J48" s="47"/>
+      <c r="K48" s="47" t="e">
         <f>(K47+L47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45" t="e">
+      <c r="L48" s="47"/>
+      <c r="M48" s="47" t="e">
         <f>(M47+N47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45" t="e">
+      <c r="N48" s="47"/>
+      <c r="O48" s="47" t="e">
         <f>(O47+P47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="51" t="e">
+      <c r="P48" s="47"/>
+      <c r="Q48" s="53" t="e">
         <f>SUM(Q47:T47)/C47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="45" t="e">
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="47" t="e">
         <f>(U47+V47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V48" s="45"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
     </row>
     <row r="49" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="15">
+      <c r="B49" s="66"/>
+      <c r="C49" s="16">
         <f>C47+C33</f>
         <v>0</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="16">
         <f t="shared" ref="D49:P49" si="2">D47+D33</f>
         <v>0</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K49" s="15">
+      <c r="K49" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L49" s="15">
+      <c r="L49" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M49" s="15">
+      <c r="M49" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N49" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O49" s="15">
+      <c r="O49" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P49" s="15">
+      <c r="P49" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="54">
+      <c r="Q49" s="56">
         <f>Q33+R33+Q47+R47</f>
         <v>0</v>
       </c>
-      <c r="R49" s="55"/>
-      <c r="S49" s="54">
+      <c r="R49" s="57"/>
+      <c r="S49" s="56">
         <f>S33+T33+S47+T47</f>
         <v>0</v>
       </c>
-      <c r="T49" s="55"/>
-      <c r="U49" s="15">
+      <c r="T49" s="57"/>
+      <c r="U49" s="16">
         <f>U47+U33</f>
         <v>0</v>
       </c>
-      <c r="V49" s="15">
+      <c r="V49" s="16">
         <f>V47+V33</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="56" t="e">
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="58" t="e">
         <f>(E49+F49)/$C$49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56" t="e">
+      <c r="F50" s="58"/>
+      <c r="G50" s="58" t="e">
         <f>(G49+H49)/$C$49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56" t="e">
+      <c r="H50" s="58"/>
+      <c r="I50" s="58" t="e">
         <f>(I49+J49)/$C$49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56" t="e">
+      <c r="J50" s="58"/>
+      <c r="K50" s="58" t="e">
         <f>(K49+L49)/$C$49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56" t="e">
+      <c r="L50" s="58"/>
+      <c r="M50" s="58" t="e">
         <f>(M49+N49)/$C$49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56" t="e">
+      <c r="N50" s="58"/>
+      <c r="O50" s="58" t="e">
         <f>(O49+P49)/$C$49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="57" t="e">
+      <c r="P50" s="58"/>
+      <c r="Q50" s="59" t="e">
         <f>SUM(Q49:T49)/C49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R50" s="58"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="59"/>
-      <c r="U50" s="56" t="e">
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="58" t="e">
         <f>SUM(U49+V49)/C49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V50" s="56"/>
+      <c r="V50" s="58"/>
     </row>
     <row r="51" spans="1:22" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E51" s="1">

--- a/PhoenixCI/Excel_Template/30720.xlsx
+++ b/PhoenixCI/Excel_Template/30720.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2038F012-37D8-4DDD-ACAC-974675B4C0F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C846EDB-F8F2-4519-B94C-1D691FD1BD52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="30720" sheetId="4216" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -585,116 +586,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="187" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -703,82 +703,79 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1147,153 +1144,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="E1" s="26" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="E1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="E2" s="28" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="E2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="U2" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
     </row>
     <row r="4" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="41" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="30" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="41" t="s">
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="42"/>
+      <c r="V4" s="41"/>
     </row>
     <row r="5" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="32" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32" t="s">
+      <c r="J5" s="31"/>
+      <c r="K5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="48" t="s">
+      <c r="L5" s="31"/>
+      <c r="M5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="32" t="s">
+      <c r="N5" s="47"/>
+      <c r="O5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="30" t="s">
+      <c r="P5" s="31"/>
+      <c r="Q5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="44"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="30"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
     </row>
     <row r="6" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1350,10 +1347,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5">
@@ -1410,8 +1407,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="5">
@@ -1468,8 +1465,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="5">
@@ -1526,8 +1523,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="5">
@@ -1584,8 +1581,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="5">
@@ -1642,8 +1639,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="5">
@@ -1692,16 +1689,16 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="10">
-        <v>0</v>
-      </c>
-      <c r="V12" s="10">
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="5">
@@ -1758,8 +1755,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="5">
@@ -1816,8 +1813,8 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="5">
@@ -1874,8 +1871,8 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="5">
@@ -1932,8 +1929,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="5">
@@ -1990,8 +1987,8 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="5">
@@ -2048,8 +2045,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="5">
@@ -2106,8 +2103,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="5">
@@ -2164,8 +2161,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="5">
@@ -2214,16 +2211,16 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
-      <c r="U21" s="10">
-        <v>0</v>
-      </c>
-      <c r="V21" s="10">
+      <c r="U21" s="6">
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="5">
@@ -2280,8 +2277,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="5">
@@ -2338,8 +2335,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="5">
@@ -2396,8 +2393,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="5">
@@ -2454,8 +2451,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="5">
@@ -2512,8 +2509,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="5">
@@ -2570,8 +2567,8 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="5">
@@ -2628,8 +2625,8 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="5">
@@ -2686,8 +2683,8 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="5">
@@ -2744,8 +2741,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="5">
@@ -2802,8 +2799,8 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="24" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="5">
@@ -2860,154 +2857,154 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <f>SUM(C7:C32)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="17">
         <f t="shared" ref="D33:V33" si="0">SUM(D7:D32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="18">
+      <c r="P33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="Q33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R33" s="18">
+      <c r="R33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S33" s="18">
+      <c r="S33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T33" s="18">
+      <c r="T33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V33" s="18">
+      <c r="V33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="19" t="e">
+      <c r="C34" s="18" t="e">
         <f>ROUND(C33/C49*100,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="19" t="e">
+      <c r="D34" s="18" t="e">
         <f>ROUND(D33/D49*100,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="47" t="e">
+      <c r="E34" s="45" t="e">
         <f>(E33+F33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47" t="e">
+      <c r="F34" s="45"/>
+      <c r="G34" s="45" t="e">
         <f>(G33+H33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47" t="e">
+      <c r="H34" s="45"/>
+      <c r="I34" s="45" t="e">
         <f>(I33+J33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47" t="e">
+      <c r="J34" s="45"/>
+      <c r="K34" s="45" t="e">
         <f>(K33+L33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47" t="e">
+      <c r="L34" s="45"/>
+      <c r="M34" s="45" t="e">
         <f>(M33+N33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47" t="e">
+      <c r="N34" s="45"/>
+      <c r="O34" s="45" t="e">
         <f>(O33+P33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="50" t="e">
+      <c r="P34" s="45"/>
+      <c r="Q34" s="48" t="e">
         <f>(Q33+R33+S33+T33)/C33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="47" t="e">
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="45" t="e">
         <f>(U33+V33)/$C$33/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V34" s="47"/>
+      <c r="V34" s="45"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
     <row r="35" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="5">
@@ -3072,8 +3069,8 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="5">
@@ -3138,8 +3135,8 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="5">
@@ -3204,8 +3201,8 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="5">
@@ -3265,13 +3262,13 @@
       <c r="U38" s="5">
         <v>0</v>
       </c>
-      <c r="V38" s="10">
+      <c r="V38" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="14" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="5">
@@ -3336,8 +3333,8 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="5">
@@ -3402,8 +3399,8 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="14" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="5">
@@ -3470,8 +3467,8 @@
       <c r="X41" s="3"/>
     </row>
     <row r="42" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="14" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="5">
@@ -3538,8 +3535,8 @@
       <c r="X42" s="3"/>
     </row>
     <row r="43" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="5">
@@ -3606,8 +3603,8 @@
       <c r="X43" s="3"/>
     </row>
     <row r="44" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="38"/>
+      <c r="B44" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="5">
@@ -3674,8 +3671,8 @@
       <c r="X44" s="3"/>
     </row>
     <row r="45" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C45" s="5">
@@ -3742,8 +3739,8 @@
       <c r="X45" s="3"/>
     </row>
     <row r="46" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="14" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="5">
@@ -3809,280 +3806,280 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" s="21" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="20" t="s">
+    <row r="47" spans="1:24" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="17">
         <f>SUM(C35:C46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="17">
         <f t="shared" ref="D47:V47" si="1">SUM(D35:D46)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L47" s="18">
+      <c r="L47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M47" s="18">
+      <c r="M47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N47" s="18">
+      <c r="N47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O47" s="18">
+      <c r="O47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P47" s="18">
+      <c r="P47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="18">
+      <c r="Q47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R47" s="18">
+      <c r="R47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S47" s="18">
+      <c r="S47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T47" s="18">
+      <c r="T47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U47" s="18">
+      <c r="U47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V47" s="18">
+      <c r="V47" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X47" s="22"/>
-    </row>
-    <row r="48" spans="1:24" s="21" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="20" t="s">
+      <c r="X47" s="21"/>
+    </row>
+    <row r="48" spans="1:24" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="19" t="e">
+      <c r="C48" s="18" t="e">
         <f>ROUND(C47/C49*100,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="19" t="e">
+      <c r="D48" s="18" t="e">
         <f>ROUND(D47/D49*100,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E48" s="47" t="e">
+      <c r="E48" s="45" t="e">
         <f>(E47+F47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47" t="e">
+      <c r="F48" s="45"/>
+      <c r="G48" s="45" t="e">
         <f>(G47+H47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47" t="e">
+      <c r="H48" s="45"/>
+      <c r="I48" s="45" t="e">
         <f>(I47+J47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47" t="e">
+      <c r="J48" s="45"/>
+      <c r="K48" s="45" t="e">
         <f>(K47+L47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47" t="e">
+      <c r="L48" s="45"/>
+      <c r="M48" s="45" t="e">
         <f>(M47+N47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47" t="e">
+      <c r="N48" s="45"/>
+      <c r="O48" s="45" t="e">
         <f>(O47+P47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="53" t="e">
+      <c r="P48" s="45"/>
+      <c r="Q48" s="51" t="e">
         <f>SUM(Q47:T47)/C47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="47" t="e">
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="45" t="e">
         <f>(U47+V47)/$C$47/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V48" s="47"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
     </row>
     <row r="49" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="16">
+      <c r="B49" s="64"/>
+      <c r="C49" s="15">
         <f>C47+C33</f>
         <v>0</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="15">
         <f t="shared" ref="D49:P49" si="2">D47+D33</f>
         <v>0</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L49" s="16">
+      <c r="L49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M49" s="16">
+      <c r="M49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N49" s="16">
+      <c r="N49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O49" s="16">
+      <c r="O49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P49" s="16">
+      <c r="P49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="56">
+      <c r="Q49" s="54">
         <f>Q33+R33+Q47+R47</f>
         <v>0</v>
       </c>
-      <c r="R49" s="57"/>
-      <c r="S49" s="56">
+      <c r="R49" s="55"/>
+      <c r="S49" s="54">
         <f>S33+T33+S47+T47</f>
         <v>0</v>
       </c>
-      <c r="T49" s="57"/>
-      <c r="U49" s="16">
+      <c r="T49" s="55"/>
+      <c r="U49" s="15">
         <f>U47+U33</f>
         <v>0</v>
       </c>
-      <c r="V49" s="16">
+      <c r="V49" s="15">
         <f>V47+V33</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="58" t="e">
+      <c r="B50" s="61"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="56" t="e">
         <f>(E49+F49)/$C$49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58" t="e">
+      <c r="F50" s="56"/>
+      <c r="G50" s="56" t="e">
         <f>(G49+H49)/$C$49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58" t="e">
+      <c r="H50" s="56"/>
+      <c r="I50" s="56" t="e">
         <f>(I49+J49)/$C$49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58" t="e">
+      <c r="J50" s="56"/>
+      <c r="K50" s="56" t="e">
         <f>(K49+L49)/$C$49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58" t="e">
+      <c r="L50" s="56"/>
+      <c r="M50" s="56" t="e">
         <f>(M49+N49)/$C$49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58" t="e">
+      <c r="N50" s="56"/>
+      <c r="O50" s="56" t="e">
         <f>(O49+P49)/$C$49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="59" t="e">
+      <c r="P50" s="56"/>
+      <c r="Q50" s="57" t="e">
         <f>SUM(Q49:T49)/C49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R50" s="60"/>
-      <c r="S50" s="60"/>
-      <c r="T50" s="61"/>
-      <c r="U50" s="58" t="e">
+      <c r="R50" s="58"/>
+      <c r="S50" s="58"/>
+      <c r="T50" s="59"/>
+      <c r="U50" s="56" t="e">
         <f>SUM(U49+V49)/C49/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V50" s="58"/>
+      <c r="V50" s="56"/>
     </row>
     <row r="51" spans="1:22" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E51" s="1">

--- a/PhoenixCI/Excel_Template/30720.xlsx
+++ b/PhoenixCI/Excel_Template/30720.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\開發\PhoenixCI\20190802\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C846EDB-F8F2-4519-B94C-1D691FD1BD52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="30720" sheetId="4216" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'30720'!$A$1:$V$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>賣</t>
   </si>
@@ -318,6 +314,10 @@
   </si>
   <si>
     <t>布蘭特原油期貨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富櫃200期貨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -469,6 +469,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -481,11 +490,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -536,46 +571,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -586,196 +586,203 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="187" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -872,23 +879,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -924,23 +914,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1120,13 +1093,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1144,153 +1117,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="E1" s="25" t="s">
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="E1" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="E2" s="27" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="E2" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
       <c r="U2" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="40" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="29" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="40" t="s">
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="41"/>
+      <c r="V4" s="46"/>
     </row>
     <row r="5" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="31" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="44"/>
+      <c r="K5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="46" t="s">
+      <c r="L5" s="44"/>
+      <c r="M5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="47"/>
-      <c r="O5" s="31" t="s">
+      <c r="N5" s="50"/>
+      <c r="O5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="29" t="s">
+      <c r="P5" s="44"/>
+      <c r="Q5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="56"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1347,10 +1320,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5">
@@ -1407,8 +1380,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="5">
@@ -1465,8 +1438,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="5">
@@ -1523,8 +1496,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="5">
@@ -1581,8 +1554,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="5">
@@ -1639,8 +1612,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="5">
@@ -1689,16 +1662,16 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="6">
-        <v>0</v>
-      </c>
-      <c r="V12" s="6">
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="5">
@@ -1755,8 +1728,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="5">
@@ -1813,9 +1786,9 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="10" t="s">
-        <v>51</v>
+      <c r="A15" s="52"/>
+      <c r="B15" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -1871,9 +1844,9 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="10" t="s">
-        <v>59</v>
+      <c r="A16" s="52"/>
+      <c r="B16" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -1929,9 +1902,9 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="10" t="s">
-        <v>62</v>
+      <c r="A17" s="52"/>
+      <c r="B17" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -1987,9 +1960,9 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="10" t="s">
-        <v>63</v>
+      <c r="A18" s="52"/>
+      <c r="B18" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -2044,10 +2017,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="10" t="s">
-        <v>66</v>
+    <row r="19" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -2103,9 +2076,9 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="10" t="s">
-        <v>28</v>
+      <c r="A20" s="52"/>
+      <c r="B20" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
@@ -2113,40 +2086,40 @@
       <c r="D20" s="5">
         <v>0</v>
       </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
         <v>0</v>
       </c>
       <c r="Q20" s="8"/>
@@ -2161,9 +2134,9 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="10" t="s">
-        <v>29</v>
+      <c r="A21" s="52"/>
+      <c r="B21" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
@@ -2171,40 +2144,40 @@
       <c r="D21" s="5">
         <v>0</v>
       </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0</v>
-      </c>
-      <c r="P21" s="5">
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
         <v>0</v>
       </c>
       <c r="Q21" s="8"/>
@@ -2219,9 +2192,9 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -2229,57 +2202,57 @@
       <c r="D22" s="5">
         <v>0</v>
       </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6">
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
         <v>0</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
-      <c r="U22" s="6">
-        <v>0</v>
-      </c>
-      <c r="V22" s="6">
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+      <c r="V22" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="11" t="s">
-        <v>31</v>
+      <c r="A23" s="52"/>
+      <c r="B23" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -2335,9 +2308,9 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="11" t="s">
-        <v>67</v>
+      <c r="A24" s="52"/>
+      <c r="B24" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
@@ -2393,9 +2366,9 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="11" t="s">
-        <v>32</v>
+      <c r="A25" s="52"/>
+      <c r="B25" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -2451,9 +2424,9 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="11" t="s">
-        <v>43</v>
+      <c r="A26" s="52"/>
+      <c r="B26" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
@@ -2509,9 +2482,9 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="11" t="s">
-        <v>44</v>
+      <c r="A27" s="52"/>
+      <c r="B27" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
@@ -2567,9 +2540,9 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="11" t="s">
-        <v>45</v>
+      <c r="A28" s="52"/>
+      <c r="B28" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -2625,9 +2598,9 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="11" t="s">
-        <v>57</v>
+      <c r="A29" s="52"/>
+      <c r="B29" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -2683,9 +2656,9 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="11" t="s">
-        <v>58</v>
+      <c r="A30" s="52"/>
+      <c r="B30" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -2741,9 +2714,9 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="23" t="s">
-        <v>64</v>
+      <c r="A31" s="52"/>
+      <c r="B31" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -2799,9 +2772,9 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="23" t="s">
-        <v>65</v>
+      <c r="A32" s="52"/>
+      <c r="B32" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -2857,619 +2830,609 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="6">
+        <v>0</v>
+      </c>
+      <c r="V33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+      <c r="B34" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="17">
-        <f>SUM(C7:C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="17">
-        <f t="shared" ref="D33:V33" si="0">SUM(D7:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
+      <c r="C34" s="18">
+        <f>SUM(C7:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="18">
+        <f t="shared" ref="D34:V34" si="0">SUM(D7:D33)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="17">
+      <c r="P34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="Q34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R33" s="17">
+      <c r="R34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S33" s="17">
+      <c r="S34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T33" s="17">
+      <c r="T34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U33" s="17">
+      <c r="U34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V33" s="17">
+      <c r="V34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="12" t="s">
+    <row r="35" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="53"/>
+      <c r="B35" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="18" t="e">
-        <f>ROUND(C33/C49*100,2)</f>
+      <c r="C35" s="19" t="e">
+        <f>ROUND(C34/C50*100,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="18" t="e">
-        <f>ROUND(D33/D49*100,2)</f>
+      <c r="D35" s="19" t="e">
+        <f>ROUND(D34/D50*100,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="45" t="e">
-        <f>(E33+F33)/$C$33/2*100</f>
+      <c r="E35" s="34" t="e">
+        <f>(E34+F34)/$C$34/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45" t="e">
-        <f>(G33+H33)/$C$33/2*100</f>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34" t="e">
+        <f>(G34+H34)/$C$34/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45" t="e">
-        <f>(I33+J33)/$C$33/2*100</f>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34" t="e">
+        <f>(I34+J34)/$C$34/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45" t="e">
-        <f>(K33+L33)/$C$33/2*100</f>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34" t="e">
+        <f>(K34+L34)/$C$34/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45" t="e">
-        <f>(M33+N33)/$C$33/2*100</f>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34" t="e">
+        <f>(M34+N34)/$C$34/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45" t="e">
-        <f>(O33+P33)/$C$33/2*100</f>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34" t="e">
+        <f>(O34+P34)/$C$34/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="48" t="e">
-        <f>(Q33+R33+S33+T33)/C33/2*100</f>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="38" t="e">
+        <f>(Q34+R34+S34+T34)/C34/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="45" t="e">
-        <f>(U33+V33)/$C$33/2*100</f>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="34" t="e">
+        <f>(U34+V34)/$C$34/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V34" s="45"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="V35" s="34"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="5">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0</v>
-      </c>
-      <c r="K35" s="6">
-        <v>0</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="6">
-        <v>0</v>
-      </c>
-      <c r="O35" s="6">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>0</v>
-      </c>
-      <c r="R35" s="5">
-        <v>0</v>
-      </c>
-      <c r="S35" s="5">
-        <v>0</v>
-      </c>
-      <c r="T35" s="5">
-        <v>0</v>
-      </c>
-      <c r="U35" s="6">
-        <v>0</v>
-      </c>
-      <c r="V35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0</v>
+      </c>
+      <c r="T36" s="5">
+        <v>0</v>
+      </c>
+      <c r="U36" s="6">
+        <v>0</v>
+      </c>
+      <c r="V36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
+      <c r="B37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="5">
-        <v>0</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0</v>
-      </c>
-      <c r="K36" s="6">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6">
-        <v>0</v>
-      </c>
-      <c r="P36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>0</v>
-      </c>
-      <c r="R36" s="5">
-        <v>0</v>
-      </c>
-      <c r="S36" s="5">
-        <v>0</v>
-      </c>
-      <c r="T36" s="5">
-        <v>0</v>
-      </c>
-      <c r="U36" s="6">
-        <v>0</v>
-      </c>
-      <c r="V36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0</v>
+      </c>
+      <c r="S37" s="5">
+        <v>0</v>
+      </c>
+      <c r="T37" s="5">
+        <v>0</v>
+      </c>
+      <c r="U37" s="6">
+        <v>0</v>
+      </c>
+      <c r="V37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
+      <c r="B38" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="5">
-        <v>0</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0</v>
-      </c>
-      <c r="O37" s="6">
-        <v>0</v>
-      </c>
-      <c r="P37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>0</v>
-      </c>
-      <c r="R37" s="5">
-        <v>0</v>
-      </c>
-      <c r="S37" s="5">
-        <v>0</v>
-      </c>
-      <c r="T37" s="5">
-        <v>0</v>
-      </c>
-      <c r="U37" s="6">
-        <v>0</v>
-      </c>
-      <c r="V37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>0</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0</v>
+      </c>
+      <c r="S38" s="5">
+        <v>0</v>
+      </c>
+      <c r="T38" s="5">
+        <v>0</v>
+      </c>
+      <c r="U38" s="6">
+        <v>0</v>
+      </c>
+      <c r="V38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="57"/>
+      <c r="B39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="5">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
-      <c r="H38" s="5">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5">
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
-      <c r="M38" s="5">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5">
-        <v>0</v>
-      </c>
-      <c r="O38" s="5">
-        <v>0</v>
-      </c>
-      <c r="P38" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>0</v>
-      </c>
-      <c r="R38" s="5">
-        <v>0</v>
-      </c>
-      <c r="S38" s="5">
-        <v>0</v>
-      </c>
-      <c r="T38" s="5">
-        <v>0</v>
-      </c>
-      <c r="U38" s="5">
-        <v>0</v>
-      </c>
-      <c r="V38" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="13" t="s">
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0</v>
+      </c>
+      <c r="R39" s="5">
+        <v>0</v>
+      </c>
+      <c r="S39" s="5">
+        <v>0</v>
+      </c>
+      <c r="T39" s="5">
+        <v>0</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="57"/>
+      <c r="B40" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="5">
-        <v>0</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
-        <v>0</v>
-      </c>
-      <c r="P39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>0</v>
-      </c>
-      <c r="R39" s="5">
-        <v>0</v>
-      </c>
-      <c r="S39" s="5">
-        <v>0</v>
-      </c>
-      <c r="T39" s="5">
-        <v>0</v>
-      </c>
-      <c r="U39" s="5">
-        <v>0</v>
-      </c>
-      <c r="V39" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>0</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0</v>
+      </c>
+      <c r="S40" s="5">
+        <v>0</v>
+      </c>
+      <c r="T40" s="5">
+        <v>0</v>
+      </c>
+      <c r="U40" s="5">
+        <v>0</v>
+      </c>
+      <c r="V40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="5">
-        <v>0</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5">
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0</v>
-      </c>
-      <c r="M40" s="5">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5">
-        <v>0</v>
-      </c>
-      <c r="O40" s="5">
-        <v>0</v>
-      </c>
-      <c r="P40" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>0</v>
-      </c>
-      <c r="R40" s="5">
-        <v>0</v>
-      </c>
-      <c r="S40" s="5">
-        <v>0</v>
-      </c>
-      <c r="T40" s="5">
-        <v>0</v>
-      </c>
-      <c r="U40" s="5">
-        <v>0</v>
-      </c>
-      <c r="V40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="13" t="s">
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>0</v>
+      </c>
+      <c r="R41" s="5">
+        <v>0</v>
+      </c>
+      <c r="S41" s="5">
+        <v>0</v>
+      </c>
+      <c r="T41" s="5">
+        <v>0</v>
+      </c>
+      <c r="U41" s="5">
+        <v>0</v>
+      </c>
+      <c r="V41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="C41" s="5">
-        <v>0</v>
-      </c>
-      <c r="D41" s="5">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
-        <v>0</v>
-      </c>
-      <c r="N41" s="6">
-        <v>0</v>
-      </c>
-      <c r="O41" s="6">
-        <v>0</v>
-      </c>
-      <c r="P41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>0</v>
-      </c>
-      <c r="R41" s="5">
-        <v>0</v>
-      </c>
-      <c r="S41" s="5">
-        <v>0</v>
-      </c>
-      <c r="T41" s="5">
-        <v>0</v>
-      </c>
-      <c r="U41" s="6">
-        <v>0</v>
-      </c>
-      <c r="V41" s="6">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="C42" s="5">
         <v>0</v>
@@ -3535,9 +3498,9 @@
       <c r="X42" s="3"/>
     </row>
     <row r="43" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="16" t="s">
-        <v>54</v>
+      <c r="A43" s="57"/>
+      <c r="B43" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C43" s="5">
         <v>0</v>
@@ -3603,9 +3566,9 @@
       <c r="X43" s="3"/>
     </row>
     <row r="44" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="14" t="s">
-        <v>41</v>
+      <c r="A44" s="57"/>
+      <c r="B44" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C44" s="5">
         <v>0</v>
@@ -3671,9 +3634,9 @@
       <c r="X44" s="3"/>
     </row>
     <row r="45" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="11" t="s">
-        <v>55</v>
+      <c r="A45" s="57"/>
+      <c r="B45" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="C45" s="5">
         <v>0</v>
@@ -3739,9 +3702,9 @@
       <c r="X45" s="3"/>
     </row>
     <row r="46" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="13" t="s">
-        <v>56</v>
+      <c r="A46" s="57"/>
+      <c r="B46" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="C46" s="5">
         <v>0</v>
@@ -3806,387 +3769,414 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="19" t="s">
+    <row r="47" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="57"/>
+      <c r="B47" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
+        <v>0</v>
+      </c>
+      <c r="P47" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>0</v>
+      </c>
+      <c r="R47" s="5">
+        <v>0</v>
+      </c>
+      <c r="S47" s="5">
+        <v>0</v>
+      </c>
+      <c r="T47" s="5">
+        <v>0</v>
+      </c>
+      <c r="U47" s="6">
+        <v>0</v>
+      </c>
+      <c r="V47" s="6">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="1:24" s="21" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="52"/>
+      <c r="B48" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="17">
-        <f>SUM(C35:C46)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="17">
-        <f t="shared" ref="D47:V47" si="1">SUM(D35:D46)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="17">
+      <c r="C48" s="18">
+        <f>SUM(C36:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="18">
+        <f t="shared" ref="D48:V48" si="1">SUM(D36:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P47" s="17">
+      <c r="P48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="17">
+      <c r="Q48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R47" s="17">
+      <c r="R48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S47" s="17">
+      <c r="S48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T47" s="17">
+      <c r="T48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U47" s="17">
+      <c r="U48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V47" s="17">
+      <c r="V48" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X47" s="21"/>
-    </row>
-    <row r="48" spans="1:24" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="19" t="s">
+      <c r="X48" s="22"/>
+    </row>
+    <row r="49" spans="1:24" s="21" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="53"/>
+      <c r="B49" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="18" t="e">
-        <f>ROUND(C47/C49*100,2)</f>
+      <c r="C49" s="19" t="e">
+        <f>ROUND(C48/C50*100,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="18" t="e">
-        <f>ROUND(D47/D49*100,2)</f>
+      <c r="D49" s="19" t="e">
+        <f>ROUND(D48/D50*100,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E48" s="45" t="e">
-        <f>(E47+F47)/$C$47/2*100</f>
+      <c r="E49" s="34" t="e">
+        <f>(E48+F48)/$C$48/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45" t="e">
-        <f>(G47+H47)/$C$47/2*100</f>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34" t="e">
+        <f>(G48+H48)/$C$48/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45" t="e">
-        <f>(I47+J47)/$C$47/2*100</f>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34" t="e">
+        <f>(I48+J48)/$C$48/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45" t="e">
-        <f>(K47+L47)/$C$47/2*100</f>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34" t="e">
+        <f>(K48+L48)/$C$48/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45" t="e">
-        <f>(M47+N47)/$C$47/2*100</f>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34" t="e">
+        <f>(M48+N48)/$C$48/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45" t="e">
-        <f>(O47+P47)/$C$47/2*100</f>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34" t="e">
+        <f>(O48+P48)/$C$48/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="51" t="e">
-        <f>SUM(Q47:T47)/C47/2*100</f>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="41" t="e">
+        <f>SUM(Q48:T48)/C48/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="45" t="e">
-        <f>(U47+V47)/$C$47/2*100</f>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="34" t="e">
+        <f>(U48+V48)/$C$48/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V48" s="45"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-    </row>
-    <row r="49" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
+      <c r="V49" s="34"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+    </row>
+    <row r="50" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="15">
-        <f>C47+C33</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="15">
-        <f t="shared" ref="D49:P49" si="2">D47+D33</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="15">
+      <c r="B50" s="31"/>
+      <c r="C50" s="16">
+        <f>C48+C34</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="16">
+        <f t="shared" ref="D50:P50" si="2">D48+D34</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K49" s="15">
+      <c r="K50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L49" s="15">
+      <c r="L50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M49" s="15">
+      <c r="M50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O49" s="15">
+      <c r="O50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P49" s="15">
+      <c r="P50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="54">
-        <f>Q33+R33+Q47+R47</f>
-        <v>0</v>
-      </c>
-      <c r="R49" s="55"/>
-      <c r="S49" s="54">
-        <f>S33+T33+S47+T47</f>
-        <v>0</v>
-      </c>
-      <c r="T49" s="55"/>
-      <c r="U49" s="15">
-        <f>U47+U33</f>
-        <v>0</v>
-      </c>
-      <c r="V49" s="15">
-        <f>V47+V33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="60" t="s">
+      <c r="Q50" s="32">
+        <f>Q34+R34+Q48+R48</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="33"/>
+      <c r="S50" s="32">
+        <f>S34+T34+S48+T48</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="33"/>
+      <c r="U50" s="16">
+        <f>U48+U34</f>
+        <v>0</v>
+      </c>
+      <c r="V50" s="16">
+        <f>V48+V34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="56" t="e">
-        <f>(E49+F49)/$C$49/2*100</f>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="30" t="e">
+        <f>(E50+F50)/$C$50/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56" t="e">
-        <f>(G49+H49)/$C$49/2*100</f>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30" t="e">
+        <f>(G50+H50)/$C$50/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56" t="e">
-        <f>(I49+J49)/$C$49/2*100</f>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30" t="e">
+        <f>(I50+J50)/$C$50/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56" t="e">
-        <f>(K49+L49)/$C$49/2*100</f>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30" t="e">
+        <f>(K50+L50)/$C$50/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56" t="e">
-        <f>(M49+N49)/$C$49/2*100</f>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30" t="e">
+        <f>(M50+N50)/$C$50/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56" t="e">
-        <f>(O49+P49)/$C$49/2*100</f>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30" t="e">
+        <f>(O50+P50)/$C$50/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="57" t="e">
-        <f>SUM(Q49:T49)/C49/2*100</f>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="35" t="e">
+        <f>SUM(Q50:T50)/C50/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R50" s="58"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="59"/>
-      <c r="U50" s="56" t="e">
-        <f>SUM(U49+V49)/C49/2*100</f>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="30" t="e">
+        <f>SUM(U50+V50)/C50/2*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V50" s="56"/>
-    </row>
-    <row r="51" spans="1:22" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="1">
-        <f t="shared" ref="E51:L51" si="3">E33+E47</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="V51" s="30"/>
+    </row>
+    <row r="52" spans="1:24" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="1">
+        <f t="shared" ref="E52:L52" si="3">E34+E48</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G52" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H52" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I52" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J52" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K52" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L52" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O51" s="1">
-        <f>O33+O47</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="1">
-        <f>P33+P47</f>
-        <v>0</v>
-      </c>
-      <c r="R51" s="1">
-        <f>R33+R47</f>
-        <v>0</v>
-      </c>
-      <c r="T51" s="1">
-        <f>T33+T47</f>
-        <v>0</v>
-      </c>
-      <c r="U51" s="1">
-        <f>U33+U47</f>
-        <v>0</v>
-      </c>
-      <c r="V51" s="1">
-        <f>V33+V47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="O52" s="1">
+        <f>O34+O48</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <f>P34+P48</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <f>R34+R48</f>
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <f>T34+T48</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <f>U34+U48</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <f>V34+V48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="U4:V5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="A7:A34"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="A35:A48"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M34:N34"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="E2:P2"/>
@@ -4197,13 +4187,54 @@
     <mergeCell ref="A3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
+    <mergeCell ref="A7:A35"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A36:A49"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="U4:V5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="Q50:R50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.42" top="0.74" bottom="0.2" header="0.5" footer="0.2"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="D34:V34 C48:D48 E50:V50 V48 P48 N48 L48 J48 H48 F48 R48:T48 E48 U48 G48 I48 K48 M48 O48 Q48" evalError="1"/>
+    <ignoredError sqref="D35:V35 C49:D49 E51:V51 V49 P49 N49 L49 J49 H49 F49 R49:T49 E49 U49 G49 I49 K49 M49 O49 Q49" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>